--- a/Symphony/2021/June/Others/RBM/Dealer & DSR Back Margin June'2021_.xlsx
+++ b/Symphony/2021/June/Others/RBM/Dealer & DSR Back Margin June'2021_.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dealer_ALL\Dealer_Incentive\Disbursement File\Final Disbursement File RBM, Dealer &amp; DSR , EO &amp; SIS\Dealer &amp; DSR and EO &amp; SIS BM\Dealer &amp; DSR 2021\6. Jun'21\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\June\Others\RBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" tabRatio="728" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" tabRatio="728" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="12" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Zone Wise'!$B$2:$F$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Dealer BM June''21 deduction'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5075,7 +5075,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -5600,7 +5600,7 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6101,14 +6101,39 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6163,6 +6188,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7753,11 +7787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10606,40 +10640,40 @@
       </c>
       <c r="K81" s="192"/>
     </row>
-    <row r="82" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="116">
+    <row r="82" spans="1:11" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="225">
         <v>81</v>
       </c>
-      <c r="B82" s="117" t="s">
+      <c r="B82" s="219" t="s">
         <v>1333</v>
       </c>
-      <c r="C82" s="115" t="s">
+      <c r="C82" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="115" t="s">
+      <c r="D82" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="112">
+      <c r="E82" s="223">
         <v>6775059.4441380957</v>
       </c>
-      <c r="F82" s="145">
+      <c r="F82" s="217">
         <v>6847890.7947000004</v>
       </c>
-      <c r="G82" s="24">
+      <c r="G82" s="214">
         <f t="shared" si="2"/>
         <v>1.0107499205228259</v>
       </c>
-      <c r="H82" s="145">
+      <c r="H82" s="217">
         <f t="shared" si="3"/>
         <v>39596.565002274161</v>
       </c>
-      <c r="I82" s="145">
+      <c r="I82" s="217">
         <v>15772.279198938055</v>
       </c>
-      <c r="J82" s="145">
+      <c r="J82" s="217">
         <v>23824.285803336108</v>
       </c>
-      <c r="K82" s="192"/>
+      <c r="K82" s="224"/>
     </row>
     <row r="83" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="113">
@@ -10746,75 +10780,75 @@
       </c>
       <c r="K85" s="192"/>
     </row>
-    <row r="86" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="113">
+    <row r="86" spans="1:11" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="221">
         <v>85</v>
       </c>
-      <c r="B86" s="117" t="s">
+      <c r="B86" s="219" t="s">
         <v>1309</v>
       </c>
-      <c r="C86" s="115" t="s">
+      <c r="C86" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="115" t="s">
+      <c r="D86" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="112">
+      <c r="E86" s="223">
         <v>15726232.765871428</v>
       </c>
-      <c r="F86" s="145">
+      <c r="F86" s="217">
         <v>15899103.701900005</v>
       </c>
-      <c r="G86" s="24">
+      <c r="G86" s="214">
         <f t="shared" si="2"/>
         <v>1.0109925204975814</v>
       </c>
-      <c r="H86" s="145">
+      <c r="H86" s="217">
         <f t="shared" si="3"/>
         <v>86296.801759757262</v>
       </c>
-      <c r="I86" s="145">
+      <c r="I86" s="217">
         <v>31497.020741944452</v>
       </c>
-      <c r="J86" s="145">
+      <c r="J86" s="217">
         <v>54799.781017812813</v>
       </c>
-      <c r="K86" s="192"/>
-    </row>
-    <row r="87" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="116">
+      <c r="K86" s="224"/>
+    </row>
+    <row r="87" spans="1:11" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="225">
         <v>86</v>
       </c>
-      <c r="B87" s="117" t="s">
+      <c r="B87" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="115" t="s">
+      <c r="C87" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="115" t="s">
+      <c r="D87" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="E87" s="112">
+      <c r="E87" s="223">
         <v>9805114.750628572</v>
       </c>
-      <c r="F87" s="145">
+      <c r="F87" s="217">
         <v>7876149.0544000007</v>
       </c>
-      <c r="G87" s="24">
+      <c r="G87" s="214">
         <f t="shared" si="2"/>
         <v>0.80326944199149608</v>
       </c>
-      <c r="H87" s="145">
+      <c r="H87" s="217">
         <f t="shared" si="3"/>
         <v>22956.44545488881</v>
       </c>
-      <c r="I87" s="145">
+      <c r="I87" s="217">
         <v>8964.1813743577986</v>
       </c>
-      <c r="J87" s="145">
+      <c r="J87" s="217">
         <v>13992.264080531009</v>
       </c>
-      <c r="K87" s="192"/>
+      <c r="K87" s="224"/>
     </row>
     <row r="88" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="116">
@@ -11445,95 +11479,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="227" t="s">
         <v>1617</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="215"/>
-      <c r="AD1" s="215"/>
-      <c r="AE1" s="215"/>
-      <c r="AF1" s="215"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="229" t="s">
         <v>1284</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="222" t="s">
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="235" t="s">
         <v>1285</v>
       </c>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="223"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
       <c r="Y2" s="194"/>
       <c r="Z2" s="194"/>
       <c r="AA2" s="195"/>
       <c r="AB2" s="152"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="219"/>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="224" t="s">
+      <c r="A3" s="232"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="237" t="s">
         <v>1618</v>
       </c>
-      <c r="M3" s="224"/>
-      <c r="N3" s="224" t="s">
+      <c r="M3" s="237"/>
+      <c r="N3" s="237" t="s">
         <v>1619</v>
       </c>
-      <c r="O3" s="224"/>
+      <c r="O3" s="237"/>
       <c r="P3" s="196"/>
       <c r="Q3" s="196"/>
       <c r="R3" s="194"/>
@@ -24674,12 +24708,12 @@
       <c r="AF120" s="137"/>
     </row>
     <row r="121" spans="1:33" s="136" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="213" t="s">
+      <c r="A121" s="226" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="213"/>
-      <c r="C121" s="213"/>
-      <c r="D121" s="213"/>
+      <c r="B121" s="226"/>
+      <c r="C121" s="226"/>
+      <c r="D121" s="226"/>
       <c r="E121" s="133">
         <f>SUM(E5:E120)</f>
         <v>988621825.674281</v>
@@ -24845,12 +24879,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="238" t="s">
         <v>1304</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
     </row>
     <row r="2" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -25087,14 +25121,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="242" t="s">
         <v>1283</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
     </row>
     <row r="2" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -26267,11 +26301,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="227" t="s">
+      <c r="A53" s="240" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="227"/>
-      <c r="C53" s="228"/>
+      <c r="B53" s="240"/>
+      <c r="C53" s="241"/>
       <c r="D53" s="10" t="e">
         <f>SUM(D3:D52)</f>
         <v>#REF!</v>
@@ -26305,7 +26339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26343,119 +26379,119 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="245" t="s">
         <v>1074</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="246" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="211" t="s">
+      <c r="C2" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="246" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="246" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="246" t="s">
         <v>1626</v>
       </c>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="212" t="s">
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="245" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212" t="s">
+      <c r="M2" s="245"/>
+      <c r="N2" s="245" t="s">
         <v>183</v>
       </c>
       <c r="O2" s="208"/>
-      <c r="P2" s="210" t="s">
+      <c r="P2" s="244" t="s">
         <v>1627</v>
       </c>
-      <c r="Q2" s="210" t="s">
+      <c r="Q2" s="244" t="s">
         <v>1295</v>
       </c>
-      <c r="R2" s="210" t="s">
+      <c r="R2" s="244" t="s">
         <v>1296</v>
       </c>
-      <c r="S2" s="210" t="s">
+      <c r="S2" s="244" t="s">
         <v>1297</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="244" t="s">
         <v>1290</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="244" t="s">
         <v>1291</v>
       </c>
-      <c r="V2" s="210" t="s">
+      <c r="V2" s="244" t="s">
         <v>1292</v>
       </c>
-      <c r="W2" s="210" t="s">
+      <c r="W2" s="244" t="s">
         <v>1293</v>
       </c>
-      <c r="X2" s="210" t="s">
+      <c r="X2" s="244" t="s">
         <v>1326</v>
       </c>
-      <c r="Y2" s="210" t="s">
+      <c r="Y2" s="244" t="s">
         <v>1327</v>
       </c>
-      <c r="Z2" s="210" t="s">
+      <c r="Z2" s="244" t="s">
         <v>1616</v>
       </c>
-      <c r="AA2" s="210" t="s">
+      <c r="AA2" s="244" t="s">
         <v>1328</v>
       </c>
-      <c r="AB2" s="210" t="s">
+      <c r="AB2" s="244" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211" t="s">
+      <c r="A3" s="246"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246" t="s">
         <v>1643</v>
       </c>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211" t="s">
+      <c r="G3" s="246"/>
+      <c r="H3" s="246" t="s">
         <v>1644</v>
       </c>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211" t="s">
+      <c r="I3" s="246"/>
+      <c r="J3" s="246" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="211"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
       <c r="O3" s="208"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="210"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="244"/>
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="211"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
+      <c r="A4" s="246"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
       <c r="F4" s="148" t="s">
         <v>185</v>
       </c>
@@ -26480,23 +26516,23 @@
       <c r="M4" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="N4" s="212"/>
+      <c r="N4" s="245"/>
       <c r="O4" s="208">
         <v>0</v>
       </c>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="210"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
+      <c r="P4" s="244"/>
+      <c r="Q4" s="244"/>
+      <c r="R4" s="244"/>
+      <c r="S4" s="244"/>
+      <c r="T4" s="244"/>
+      <c r="U4" s="244"/>
+      <c r="V4" s="244"/>
+      <c r="W4" s="244"/>
+      <c r="X4" s="244"/>
+      <c r="Y4" s="244"/>
+      <c r="Z4" s="244"/>
+      <c r="AA4" s="244"/>
+      <c r="AB4" s="244"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="143">
@@ -29226,8 +29262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P488" sqref="P488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29265,117 +29302,117 @@
       </c>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="245" t="s">
         <v>1074</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="246" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="211" t="s">
+      <c r="C2" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="246" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="246" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="246" t="s">
         <v>1626</v>
       </c>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="212" t="s">
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="245" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212" t="s">
+      <c r="M2" s="245"/>
+      <c r="N2" s="245" t="s">
         <v>183</v>
       </c>
-      <c r="O2" s="210" t="s">
+      <c r="O2" s="244" t="s">
         <v>1627</v>
       </c>
-      <c r="P2" s="210" t="s">
+      <c r="P2" s="244" t="s">
         <v>1295</v>
       </c>
-      <c r="Q2" s="210" t="s">
+      <c r="Q2" s="244" t="s">
         <v>1296</v>
       </c>
-      <c r="R2" s="210" t="s">
+      <c r="R2" s="244" t="s">
         <v>1297</v>
       </c>
-      <c r="S2" s="210" t="s">
+      <c r="S2" s="244" t="s">
         <v>1290</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="244" t="s">
         <v>1291</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="244" t="s">
         <v>1292</v>
       </c>
-      <c r="V2" s="210" t="s">
+      <c r="V2" s="244" t="s">
         <v>1293</v>
       </c>
-      <c r="W2" s="210" t="s">
+      <c r="W2" s="244" t="s">
         <v>1326</v>
       </c>
-      <c r="X2" s="210" t="s">
+      <c r="X2" s="244" t="s">
         <v>1327</v>
       </c>
-      <c r="Y2" s="210" t="s">
+      <c r="Y2" s="244" t="s">
         <v>1616</v>
       </c>
-      <c r="Z2" s="210" t="s">
+      <c r="Z2" s="244" t="s">
         <v>1328</v>
       </c>
-      <c r="AA2" s="210" t="s">
+      <c r="AA2" s="244" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211" t="s">
+      <c r="A3" s="246"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246" t="s">
         <v>1643</v>
       </c>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211" t="s">
+      <c r="G3" s="246"/>
+      <c r="H3" s="246" t="s">
         <v>1644</v>
       </c>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211" t="s">
+      <c r="I3" s="246"/>
+      <c r="J3" s="246" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="211"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="244"/>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="211"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
+      <c r="A4" s="246"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
       <c r="F4" s="148" t="s">
         <v>185</v>
       </c>
@@ -29400,20 +29437,20 @@
       <c r="M4" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="N4" s="212"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="210"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="244"/>
+      <c r="P4" s="244"/>
+      <c r="Q4" s="244"/>
+      <c r="R4" s="244"/>
+      <c r="S4" s="244"/>
+      <c r="T4" s="244"/>
+      <c r="U4" s="244"/>
+      <c r="V4" s="244"/>
+      <c r="W4" s="244"/>
+      <c r="X4" s="244"/>
+      <c r="Y4" s="244"/>
+      <c r="Z4" s="244"/>
+      <c r="AA4" s="244"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="143">
@@ -67728,572 +67765,572 @@
       </c>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A478" s="143">
+    <row r="478" spans="1:27" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="210">
         <v>474</v>
       </c>
-      <c r="B478" s="172" t="s">
+      <c r="B478" s="211" t="s">
         <v>1309</v>
       </c>
-      <c r="C478" s="174" t="s">
+      <c r="C478" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="D478" s="143" t="s">
+      <c r="D478" s="210" t="s">
         <v>781</v>
       </c>
-      <c r="E478" s="172" t="s">
+      <c r="E478" s="211" t="s">
         <v>1186</v>
       </c>
-      <c r="F478" s="146">
+      <c r="F478" s="213">
         <v>3061</v>
       </c>
-      <c r="G478" s="146">
+      <c r="G478" s="213">
         <v>5409900</v>
       </c>
-      <c r="H478" s="7">
+      <c r="H478" s="213">
         <v>1236</v>
       </c>
-      <c r="I478" s="7">
+      <c r="I478" s="213">
         <v>2260995</v>
       </c>
-      <c r="J478" s="24">
+      <c r="J478" s="214">
         <v>0.40378961123815749</v>
       </c>
-      <c r="K478" s="24">
+      <c r="K478" s="214">
         <v>0.41793656074973662</v>
       </c>
-      <c r="L478" s="24">
+      <c r="L478" s="214">
         <v>0.12113688337144723</v>
       </c>
-      <c r="M478" s="24">
+      <c r="M478" s="214">
         <v>0.29255559252481561</v>
       </c>
-      <c r="N478" s="109">
+      <c r="N478" s="215">
         <v>0.41369247589626285</v>
       </c>
-      <c r="O478" s="144">
-        <v>0</v>
-      </c>
-      <c r="P478" s="7">
+      <c r="O478" s="216">
+        <v>0</v>
+      </c>
+      <c r="P478" s="213">
         <v>828615</v>
       </c>
-      <c r="Q478" s="7">
+      <c r="Q478" s="213">
         <v>1432380</v>
       </c>
-      <c r="R478" s="137">
+      <c r="R478" s="217">
         <v>2260995</v>
       </c>
-      <c r="S478" s="142">
+      <c r="S478" s="218">
         <v>0.36648245573298482</v>
       </c>
-      <c r="T478" s="142">
+      <c r="T478" s="218">
         <v>0.63351754426701523</v>
       </c>
-      <c r="U478" s="137">
-        <v>0</v>
-      </c>
-      <c r="V478" s="137">
-        <v>0</v>
-      </c>
-      <c r="W478" s="2" t="s">
+      <c r="U478" s="217">
+        <v>0</v>
+      </c>
+      <c r="V478" s="217">
+        <v>0</v>
+      </c>
+      <c r="W478" s="219" t="s">
         <v>1646</v>
       </c>
-      <c r="X478" s="2">
+      <c r="X478" s="219">
         <v>1725905020</v>
       </c>
-      <c r="Y478" s="2" t="s">
+      <c r="Y478" s="219" t="s">
         <v>1647</v>
       </c>
-      <c r="Z478" s="2" t="s">
+      <c r="Z478" s="219" t="s">
         <v>1649</v>
       </c>
-      <c r="AA478" s="2"/>
-    </row>
-    <row r="479" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A479" s="143">
+      <c r="AA478" s="219"/>
+    </row>
+    <row r="479" spans="1:27" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="210">
         <v>475</v>
       </c>
-      <c r="B479" s="172" t="s">
+      <c r="B479" s="211" t="s">
         <v>1309</v>
       </c>
-      <c r="C479" s="174" t="s">
+      <c r="C479" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="D479" s="143" t="s">
+      <c r="D479" s="210" t="s">
         <v>783</v>
       </c>
-      <c r="E479" s="172" t="s">
+      <c r="E479" s="211" t="s">
         <v>1185</v>
       </c>
-      <c r="F479" s="146">
+      <c r="F479" s="213">
         <v>1147</v>
       </c>
-      <c r="G479" s="146">
+      <c r="G479" s="213">
         <v>2066725</v>
       </c>
-      <c r="H479" s="7">
+      <c r="H479" s="213">
         <v>1067</v>
       </c>
-      <c r="I479" s="7">
+      <c r="I479" s="213">
         <v>1661870</v>
       </c>
-      <c r="J479" s="24">
+      <c r="J479" s="214">
         <v>0.93025283347863996</v>
       </c>
-      <c r="K479" s="24">
+      <c r="K479" s="214">
         <v>0.8041079485659679</v>
       </c>
-      <c r="L479" s="24">
+      <c r="L479" s="214">
         <v>0.27907585004359198</v>
       </c>
-      <c r="M479" s="24">
+      <c r="M479" s="214">
         <v>0.56287556399617744</v>
       </c>
-      <c r="N479" s="109">
+      <c r="N479" s="215">
         <v>0.84195141403976947</v>
       </c>
-      <c r="O479" s="144">
+      <c r="O479" s="216">
         <v>1590.7455130212259</v>
       </c>
-      <c r="P479" s="7">
+      <c r="P479" s="213">
         <v>793970</v>
       </c>
-      <c r="Q479" s="7">
+      <c r="Q479" s="213">
         <v>867900</v>
       </c>
-      <c r="R479" s="137">
+      <c r="R479" s="217">
         <v>1661870</v>
       </c>
-      <c r="S479" s="142">
+      <c r="S479" s="218">
         <v>0.47775698460168364</v>
       </c>
-      <c r="T479" s="142">
+      <c r="T479" s="218">
         <v>0.5222430153983163</v>
       </c>
-      <c r="U479" s="137">
+      <c r="U479" s="217">
         <v>759.98977956967917</v>
       </c>
-      <c r="V479" s="137">
+      <c r="V479" s="217">
         <v>830.75573345154658</v>
       </c>
-      <c r="W479" s="2" t="s">
+      <c r="W479" s="219" t="s">
         <v>1646</v>
       </c>
-      <c r="X479" s="2">
+      <c r="X479" s="219">
         <v>1798555701</v>
       </c>
-      <c r="Y479" s="2" t="s">
+      <c r="Y479" s="219" t="s">
         <v>1647</v>
       </c>
-      <c r="Z479" s="2" t="s">
+      <c r="Z479" s="219" t="s">
         <v>1649</v>
       </c>
-      <c r="AA479" s="2"/>
-    </row>
-    <row r="480" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A480" s="143">
+      <c r="AA479" s="219"/>
+    </row>
+    <row r="480" spans="1:27" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="210">
         <v>476</v>
       </c>
-      <c r="B480" s="172" t="s">
+      <c r="B480" s="211" t="s">
         <v>1309</v>
       </c>
-      <c r="C480" s="174" t="s">
+      <c r="C480" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="D480" s="143" t="s">
+      <c r="D480" s="210" t="s">
         <v>785</v>
       </c>
-      <c r="E480" s="172" t="s">
+      <c r="E480" s="211" t="s">
         <v>1582</v>
       </c>
-      <c r="F480" s="146">
+      <c r="F480" s="213">
         <v>1560</v>
       </c>
-      <c r="G480" s="146">
+      <c r="G480" s="213">
         <v>2782405</v>
       </c>
-      <c r="H480" s="7">
+      <c r="H480" s="213">
         <v>1152</v>
       </c>
-      <c r="I480" s="7">
+      <c r="I480" s="213">
         <v>1755870</v>
       </c>
-      <c r="J480" s="24">
+      <c r="J480" s="214">
         <v>0.7384615384615385</v>
       </c>
-      <c r="K480" s="24">
+      <c r="K480" s="214">
         <v>0.63106197695878208</v>
       </c>
-      <c r="L480" s="24">
+      <c r="L480" s="214">
         <v>0.22153846153846155</v>
       </c>
-      <c r="M480" s="24">
+      <c r="M480" s="214">
         <v>0.44174338387114742</v>
       </c>
-      <c r="N480" s="109">
+      <c r="N480" s="215">
         <v>0.66328184540960899</v>
       </c>
-      <c r="O480" s="144">
-        <v>0</v>
-      </c>
-      <c r="P480" s="7">
+      <c r="O480" s="216">
+        <v>0</v>
+      </c>
+      <c r="P480" s="213">
         <v>841955</v>
       </c>
-      <c r="Q480" s="7">
+      <c r="Q480" s="213">
         <v>910520</v>
       </c>
-      <c r="R480" s="137">
+      <c r="R480" s="217">
         <v>1752475</v>
       </c>
-      <c r="S480" s="142">
+      <c r="S480" s="218">
         <v>0.48043766672848398</v>
       </c>
-      <c r="T480" s="142">
+      <c r="T480" s="218">
         <v>0.51956233327151602</v>
       </c>
-      <c r="U480" s="137">
-        <v>0</v>
-      </c>
-      <c r="V480" s="137">
-        <v>0</v>
-      </c>
-      <c r="W480" s="2" t="s">
+      <c r="U480" s="217">
+        <v>0</v>
+      </c>
+      <c r="V480" s="217">
+        <v>0</v>
+      </c>
+      <c r="W480" s="219" t="s">
         <v>1646</v>
       </c>
-      <c r="X480" s="2">
+      <c r="X480" s="219">
         <v>1751484304</v>
       </c>
-      <c r="Y480" s="2" t="s">
+      <c r="Y480" s="219" t="s">
         <v>1647</v>
       </c>
-      <c r="Z480" s="2" t="s">
+      <c r="Z480" s="219" t="s">
         <v>1649</v>
       </c>
-      <c r="AA480" s="2"/>
-    </row>
-    <row r="481" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A481" s="143">
+      <c r="AA480" s="219"/>
+    </row>
+    <row r="481" spans="1:27" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="210">
         <v>477</v>
       </c>
-      <c r="B481" s="172" t="s">
+      <c r="B481" s="211" t="s">
         <v>1309</v>
       </c>
-      <c r="C481" s="174" t="s">
+      <c r="C481" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="D481" s="143" t="s">
+      <c r="D481" s="210" t="s">
         <v>784</v>
       </c>
-      <c r="E481" s="172" t="s">
+      <c r="E481" s="211" t="s">
         <v>1187</v>
       </c>
-      <c r="F481" s="146">
+      <c r="F481" s="213">
         <v>1254</v>
       </c>
-      <c r="G481" s="146">
+      <c r="G481" s="213">
         <v>2252870</v>
       </c>
-      <c r="H481" s="7">
+      <c r="H481" s="213">
         <v>1216</v>
       </c>
-      <c r="I481" s="7">
+      <c r="I481" s="213">
         <v>1836955</v>
       </c>
-      <c r="J481" s="24">
+      <c r="J481" s="214">
         <v>0.96969696969696972</v>
       </c>
-      <c r="K481" s="24">
+      <c r="K481" s="214">
         <v>0.81538437637324834</v>
       </c>
-      <c r="L481" s="24">
+      <c r="L481" s="214">
         <v>0.29090909090909089</v>
       </c>
-      <c r="M481" s="24">
+      <c r="M481" s="214">
         <v>0.57076906346127376</v>
       </c>
-      <c r="N481" s="109">
+      <c r="N481" s="215">
         <v>0.86167815437036466</v>
       </c>
-      <c r="O481" s="144">
+      <c r="O481" s="216">
         <v>1628.0163378504919</v>
       </c>
-      <c r="P481" s="7">
+      <c r="P481" s="213">
         <v>957195</v>
       </c>
-      <c r="Q481" s="7">
+      <c r="Q481" s="213">
         <v>872330</v>
       </c>
-      <c r="R481" s="137">
+      <c r="R481" s="217">
         <v>1829525</v>
       </c>
-      <c r="S481" s="142">
+      <c r="S481" s="218">
         <v>0.52319317855727576</v>
       </c>
-      <c r="T481" s="142">
+      <c r="T481" s="218">
         <v>0.47680682144272418</v>
       </c>
-      <c r="U481" s="137">
+      <c r="U481" s="217">
         <v>851.76704254317463</v>
       </c>
-      <c r="V481" s="137">
+      <c r="V481" s="217">
         <v>776.2492953073172</v>
       </c>
-      <c r="W481" s="2" t="s">
+      <c r="W481" s="219" t="s">
         <v>1646</v>
       </c>
-      <c r="X481" s="2">
+      <c r="X481" s="219">
         <v>1740883469</v>
       </c>
-      <c r="Y481" s="2" t="s">
+      <c r="Y481" s="219" t="s">
         <v>1647</v>
       </c>
-      <c r="Z481" s="2" t="s">
+      <c r="Z481" s="219" t="s">
         <v>1649</v>
       </c>
-      <c r="AA481" s="2"/>
-    </row>
-    <row r="482" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A482" s="143">
+      <c r="AA481" s="219"/>
+    </row>
+    <row r="482" spans="1:27" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="210">
         <v>478</v>
       </c>
-      <c r="B482" s="172" t="s">
+      <c r="B482" s="211" t="s">
         <v>1309</v>
       </c>
-      <c r="C482" s="174" t="s">
+      <c r="C482" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="D482" s="143" t="s">
+      <c r="D482" s="210" t="s">
         <v>786</v>
       </c>
-      <c r="E482" s="172" t="s">
+      <c r="E482" s="211" t="s">
         <v>1583</v>
       </c>
-      <c r="F482" s="146">
+      <c r="F482" s="213">
         <v>623</v>
       </c>
-      <c r="G482" s="146">
+      <c r="G482" s="213">
         <v>1112505</v>
       </c>
-      <c r="H482" s="7">
+      <c r="H482" s="213">
         <v>1045</v>
       </c>
-      <c r="I482" s="7">
+      <c r="I482" s="213">
         <v>1384460</v>
       </c>
-      <c r="J482" s="24">
+      <c r="J482" s="214">
         <v>1.6773675762439808</v>
       </c>
-      <c r="K482" s="24">
+      <c r="K482" s="214">
         <v>1.2444528339198475</v>
       </c>
-      <c r="L482" s="24">
+      <c r="L482" s="214">
         <v>0.3</v>
       </c>
-      <c r="M482" s="24">
+      <c r="M482" s="214">
         <v>0.7</v>
       </c>
-      <c r="N482" s="109">
+      <c r="N482" s="215">
         <v>1</v>
       </c>
-      <c r="O482" s="144">
+      <c r="O482" s="216">
         <v>1889.3554740750008</v>
       </c>
-      <c r="P482" s="7">
+      <c r="P482" s="213">
         <v>840975</v>
       </c>
-      <c r="Q482" s="7">
+      <c r="Q482" s="213">
         <v>528520</v>
       </c>
-      <c r="R482" s="137">
+      <c r="R482" s="217">
         <v>1369495</v>
       </c>
-      <c r="S482" s="142">
+      <c r="S482" s="218">
         <v>0.61407672171128769</v>
       </c>
-      <c r="T482" s="142">
+      <c r="T482" s="218">
         <v>0.38592327828871226</v>
       </c>
-      <c r="U482" s="137">
+      <c r="U482" s="217">
         <v>1160.2092156672522</v>
       </c>
-      <c r="V482" s="137">
+      <c r="V482" s="217">
         <v>729.14625840774841</v>
       </c>
-      <c r="W482" s="2" t="s">
+      <c r="W482" s="219" t="s">
         <v>1646</v>
       </c>
-      <c r="X482" s="2">
+      <c r="X482" s="219">
         <v>1796962083</v>
       </c>
-      <c r="Y482" s="2" t="s">
+      <c r="Y482" s="219" t="s">
         <v>1647</v>
       </c>
-      <c r="Z482" s="2" t="s">
+      <c r="Z482" s="219" t="s">
         <v>1649</v>
       </c>
-      <c r="AA482" s="2"/>
-    </row>
-    <row r="483" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A483" s="143">
+      <c r="AA482" s="219"/>
+    </row>
+    <row r="483" spans="1:27" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="210">
         <v>479</v>
       </c>
-      <c r="B483" s="172" t="s">
+      <c r="B483" s="211" t="s">
         <v>1309</v>
       </c>
-      <c r="C483" s="174" t="s">
+      <c r="C483" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="D483" s="143" t="s">
+      <c r="D483" s="210" t="s">
         <v>788</v>
       </c>
-      <c r="E483" s="172" t="s">
+      <c r="E483" s="211" t="s">
         <v>1584</v>
       </c>
-      <c r="F483" s="146">
+      <c r="F483" s="213">
         <v>679</v>
       </c>
-      <c r="G483" s="146">
+      <c r="G483" s="213">
         <v>1221400</v>
       </c>
-      <c r="H483" s="7">
+      <c r="H483" s="213">
         <v>940</v>
       </c>
-      <c r="I483" s="7">
+      <c r="I483" s="213">
         <v>1218335</v>
       </c>
-      <c r="J483" s="24">
+      <c r="J483" s="214">
         <v>1.3843888070692194</v>
       </c>
-      <c r="K483" s="24">
+      <c r="K483" s="214">
         <v>0.99749058457507778</v>
       </c>
-      <c r="L483" s="24">
+      <c r="L483" s="214">
         <v>0.3</v>
       </c>
-      <c r="M483" s="24">
+      <c r="M483" s="214">
         <v>0.69824340920255445</v>
       </c>
-      <c r="N483" s="109">
+      <c r="N483" s="215">
         <v>0.9982434092025545</v>
       </c>
-      <c r="O483" s="144">
+      <c r="O483" s="216">
         <v>1886.0366496361373</v>
       </c>
-      <c r="P483" s="7">
+      <c r="P483" s="213">
         <v>715690</v>
       </c>
-      <c r="Q483" s="7">
+      <c r="Q483" s="213">
         <v>450370</v>
       </c>
-      <c r="R483" s="137">
+      <c r="R483" s="217">
         <v>1166060</v>
       </c>
-      <c r="S483" s="142">
+      <c r="S483" s="218">
         <v>0.61376773064850865</v>
       </c>
-      <c r="T483" s="142">
+      <c r="T483" s="218">
         <v>0.38623226935149135</v>
       </c>
-      <c r="U483" s="137">
+      <c r="U483" s="217">
         <v>1157.5884343670884</v>
       </c>
-      <c r="V483" s="137">
+      <c r="V483" s="217">
         <v>728.44821526904889</v>
       </c>
-      <c r="W483" s="2" t="s">
+      <c r="W483" s="219" t="s">
         <v>1646</v>
       </c>
-      <c r="X483" s="2">
+      <c r="X483" s="219">
         <v>1736662640</v>
       </c>
-      <c r="Y483" s="2" t="s">
+      <c r="Y483" s="219" t="s">
         <v>1647</v>
       </c>
-      <c r="Z483" s="2" t="s">
+      <c r="Z483" s="219" t="s">
         <v>1649</v>
       </c>
-      <c r="AA483" s="2"/>
-    </row>
-    <row r="484" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A484" s="143">
+      <c r="AA483" s="219"/>
+    </row>
+    <row r="484" spans="1:27" s="220" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="210">
         <v>480</v>
       </c>
-      <c r="B484" s="172" t="s">
+      <c r="B484" s="211" t="s">
         <v>1309</v>
       </c>
-      <c r="C484" s="174" t="s">
+      <c r="C484" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="D484" s="143" t="s">
+      <c r="D484" s="210" t="s">
         <v>790</v>
       </c>
-      <c r="E484" s="172" t="s">
+      <c r="E484" s="211" t="s">
         <v>1585</v>
       </c>
-      <c r="F484" s="146">
+      <c r="F484" s="213">
         <v>726</v>
       </c>
-      <c r="G484" s="146">
+      <c r="G484" s="213">
         <v>1288410</v>
       </c>
-      <c r="H484" s="7">
+      <c r="H484" s="213">
         <v>1219</v>
       </c>
-      <c r="I484" s="7">
+      <c r="I484" s="213">
         <v>1656665</v>
       </c>
-      <c r="J484" s="24">
+      <c r="J484" s="214">
         <v>1.6790633608815426</v>
       </c>
-      <c r="K484" s="24">
+      <c r="K484" s="214">
         <v>1.2858212835976126</v>
       </c>
-      <c r="L484" s="24">
+      <c r="L484" s="214">
         <v>0.3</v>
       </c>
-      <c r="M484" s="24">
+      <c r="M484" s="214">
         <v>0.7</v>
       </c>
-      <c r="N484" s="109">
+      <c r="N484" s="215">
         <v>1</v>
       </c>
-      <c r="O484" s="144">
+      <c r="O484" s="216">
         <v>1889.3554740750008</v>
       </c>
-      <c r="P484" s="7">
+      <c r="P484" s="213">
         <v>865555</v>
       </c>
-      <c r="Q484" s="7">
+      <c r="Q484" s="213">
         <v>780450</v>
       </c>
-      <c r="R484" s="137">
+      <c r="R484" s="217">
         <v>1646005</v>
       </c>
-      <c r="S484" s="142">
+      <c r="S484" s="218">
         <v>0.52585198708387881</v>
       </c>
-      <c r="T484" s="142">
+      <c r="T484" s="218">
         <v>0.47414801291612113</v>
       </c>
-      <c r="U484" s="137">
+      <c r="U484" s="217">
         <v>993.52133035014299</v>
       </c>
-      <c r="V484" s="137">
+      <c r="V484" s="217">
         <v>895.83414372485765</v>
       </c>
-      <c r="W484" s="2" t="s">
+      <c r="W484" s="219" t="s">
         <v>1646</v>
       </c>
-      <c r="X484" s="2">
+      <c r="X484" s="219">
         <v>1743348335</v>
       </c>
-      <c r="Y484" s="2" t="s">
+      <c r="Y484" s="219" t="s">
         <v>1647</v>
       </c>
-      <c r="Z484" s="2" t="s">
+      <c r="Z484" s="219" t="s">
         <v>1649</v>
       </c>
-      <c r="AA484" s="2"/>
+      <c r="AA484" s="219"/>
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A485" s="143">
@@ -71565,13 +71602,13 @@
       <c r="AA525" s="2"/>
     </row>
     <row r="526" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A526" s="231" t="s">
+      <c r="A526" s="247" t="s">
         <v>1298</v>
       </c>
-      <c r="B526" s="231"/>
-      <c r="C526" s="231"/>
-      <c r="D526" s="231"/>
-      <c r="E526" s="231"/>
+      <c r="B526" s="247"/>
+      <c r="C526" s="247"/>
+      <c r="D526" s="247"/>
+      <c r="E526" s="247"/>
       <c r="F526" s="161">
         <v>570617</v>
       </c>
